--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D076DCE-52DD-4146-8579-BFB44509D5A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C263FB-A949-44EF-8E0C-289F79998E87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,94 +83,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단어 뒤집기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>괄호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스택 수열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에디터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>큐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조세퍼스 문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단어 뒤집기 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇠막대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오큰수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오등큰수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후위 표기식 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후위 표기식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알파벳 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알파벳 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열 분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단어 길이 재기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROT13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접미사 배열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문자열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,19 +95,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나머지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대공약수와 최소공배수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소공배수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소수 찾기</t>
+    <t>10828 스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9093 단어 뒤집기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9012 괄호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1874 스택 수열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1406 에디터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10845 큐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1158 조세퍼스 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10866 덱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17413 단어 뒤집기 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10799 쇠막대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17298 오큰수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17299 오등큰수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1935 후위 표기식 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1918 후위 표기식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10808 알파벳 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10809 알파벳 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10820 문자열 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2743 단어 길이 재기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11655 ROT13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10824 네 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11656 접미사 배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10430 나머지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2609 최대공약수와 최소공배수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1934 최소공배수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1978 소수 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1929 소수 구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6588 골드바흐의 추측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10872 팩토리얼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -639,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="2"/>
@@ -656,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5">
         <v>44191</v>
@@ -670,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5">
         <v>44191</v>
@@ -684,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5">
         <v>44191</v>
@@ -698,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5">
         <v>44191</v>
@@ -712,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5">
         <v>44191</v>
@@ -726,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5">
         <v>44191</v>
@@ -740,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5">
         <v>44191</v>
@@ -754,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5">
         <v>44191</v>
@@ -768,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5">
         <v>44191</v>
@@ -782,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5">
         <v>44191</v>
@@ -796,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="5">
         <v>44191</v>
@@ -810,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" s="5">
         <v>44191</v>
@@ -824,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5">
         <v>44191</v>
@@ -838,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" s="5">
         <v>44191</v>
@@ -846,13 +858,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D16" s="5">
         <v>44191</v>
@@ -860,13 +872,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" s="5">
         <v>44191</v>
@@ -874,13 +886,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18" s="5">
         <v>44192</v>
@@ -888,13 +900,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D19" s="5">
         <v>44192</v>
@@ -902,13 +914,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" s="5">
         <v>44192</v>
@@ -916,13 +928,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" s="5">
         <v>44192</v>
@@ -930,13 +942,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22" s="5">
         <v>44192</v>
@@ -944,7 +956,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -958,7 +970,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -972,7 +984,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -986,7 +998,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -999,22 +1011,46 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="5">
+        <v>44195</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="5">
+        <v>44195</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="5">
+        <v>44195</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C263FB-A949-44EF-8E0C-289F79998E87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAD325C-72D2-43D0-8C07-D2146A3DCEB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,18 @@
   </si>
   <si>
     <t>10872 팩토리얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1676 팩토리얼 0의 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004 조합 0의 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9613 GCD 합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1053,22 +1065,46 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="5">
+        <v>44196</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="5">
+        <v>44196</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="A32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="5">
+        <v>44196</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="4"/>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAD325C-72D2-43D0-8C07-D2146A3DCEB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D973EC-4EB2-45E8-AC91-5CF66F8CE19B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="48">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,15 @@
   <si>
     <t>9613 GCD 합</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1212 8진수 2진수</t>
+  </si>
+  <si>
+    <t>1373 2진수 8진수</t>
+  </si>
+  <si>
+    <t>17087 숨바꼭질6</t>
   </si>
 </sst>
 </file>
@@ -640,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1107,22 +1116,46 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="5">
+        <v>44197</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="5">
+        <v>44197</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="A35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="5">
+        <v>44197</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="4"/>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02159639-91A6-499F-B09F-FA0A4C208617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA2665A-64B6-4722-8E3A-06A277CEC75E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,18 @@
   </si>
   <si>
     <t>11005 진법 변환2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2745 진법 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11576 Base Conversion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11653 소인수분해</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1272,24 +1284,48 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44200</v>
+      </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44200</v>
+      </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="4">
+        <v>44200</v>
+      </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA2665A-64B6-4722-8E3A-06A277CEC75E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B56A852-77B5-4649-A1AB-E66CF3DA8120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,26 @@
   </si>
   <si>
     <t>11653 소인수분해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1463 1로 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11726 2 x n 타일링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11727 2 x n 타일링2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9095 1, 2, 3 더하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1329,31 +1349,63 @@
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44203</v>
+      </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44203</v>
+      </c>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="4">
+        <v>44203</v>
+      </c>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44203</v>
+      </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFCE8F7-6830-47F4-98DA-65A673053033}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA86516A-8F3E-43F3-B697-7F6047085F78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="77">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +325,26 @@
   </si>
   <si>
     <t>가장 긴 증가하는 수열4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제곱수의 합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합분해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2, 3 더하기3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼭 DP로 풀어야되나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1739,7 +1759,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1759,7 +1779,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -1779,7 +1799,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1799,7 +1819,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1819,7 +1839,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1839,57 +1859,120 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1699</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="4">
+        <v>44206</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2225</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="4">
+        <v>44206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3">
+        <v>15988</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="4">
+        <v>44206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1149</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="4">
+        <v>44206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>63</v>
       </c>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA86516A-8F3E-43F3-B697-7F6047085F78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A668DF-6AB2-4D05-A66A-4558834E3033}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1807,7 +1807,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="3">
         <v>11053</v>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A668DF-6AB2-4D05-A66A-4558834E3033}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F319FE-270D-4CF2-85B6-B762232BB0A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="83">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +345,30 @@
   </si>
   <si>
     <t>RGB거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007 * 10 해봤자 100000인데 왜 long long 이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오르막 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스티커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포도주 시식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수 삼각형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -783,7 +807,7 @@
     <col min="3" max="4" width="8.6640625" style="3"/>
     <col min="5" max="5" width="45.9140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.9140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="41.4140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1946,25 +1970,103 @@
       <c r="A58" s="3">
         <v>57</v>
       </c>
+      <c r="B58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1309</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="4">
+        <v>44209</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>58</v>
       </c>
+      <c r="B59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3">
+        <v>11057</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="4">
+        <v>44209</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>59</v>
       </c>
+      <c r="B60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3">
+        <v>9465</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="4">
+        <v>44209</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>60</v>
       </c>
+      <c r="B61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="3">
+        <v>2</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2156</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="4">
+        <v>44209</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1932</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="4">
+        <v>44209</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F319FE-270D-4CF2-85B6-B762232BB0A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9A74C7-D4F8-4C22-830D-59AF5988ED06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,6 +369,30 @@
   </si>
   <si>
     <t>정수 삼각형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 뒤에서부터 오는지 이해가 잘 안 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 큰 증가하는 부분 수열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 긴 감소하는 부분 수열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 긴 바이토닉 부분 수열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속합2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일 채우기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1045,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3">
         <v>17298</v>
@@ -1065,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3">
         <v>17299</v>
@@ -1105,7 +1129,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3">
         <v>1918</v>
@@ -1525,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="C36" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="3">
         <v>2089</v>
@@ -1771,7 +1795,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" s="3">
         <v>15990</v>
@@ -1831,7 +1855,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" s="3">
         <v>11053</v>
@@ -1851,7 +1875,7 @@
         <v>17</v>
       </c>
       <c r="C52" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" s="3">
         <v>14002</v>
@@ -1871,7 +1895,7 @@
         <v>17</v>
       </c>
       <c r="C53" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="3">
         <v>1912</v>
@@ -1891,7 +1915,7 @@
         <v>17</v>
       </c>
       <c r="C54" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" s="3">
         <v>1699</v>
@@ -1914,7 +1938,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" s="3">
         <v>2225</v>
@@ -2073,88 +2097,151 @@
       <c r="A63" s="3">
         <v>62</v>
       </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3">
+        <v>11055</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="4">
+        <v>44210</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3">
+        <v>11722</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F64" s="4">
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C65" s="3">
+        <v>2</v>
+      </c>
+      <c r="D65" s="3">
+        <v>11054</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" s="4">
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C66" s="3">
+        <v>3</v>
+      </c>
+      <c r="D66" s="3">
+        <v>13398</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" s="4">
+        <v>44210</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C67" s="3">
+        <v>3</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2133</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" s="4">
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>79</v>
       </c>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9A74C7-D4F8-4C22-830D-59AF5988ED06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC54FEB-D724-4432-AC6F-8F67F9A03311}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,6 +393,14 @@
   </si>
   <si>
     <t>타일 채우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB거리2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일곱 난쟁이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2185,10 +2193,34 @@
       <c r="A68" s="3">
         <v>67</v>
       </c>
+      <c r="C68" s="3">
+        <v>3</v>
+      </c>
+      <c r="D68" s="3">
+        <v>17404</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="4">
+        <v>44211</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>68</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2309</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69" s="4">
+        <v>44211</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC54FEB-D724-4432-AC6F-8F67F9A03311}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79907A6C-CB60-4407-A94D-A80322A108AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="107">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,70 @@
   </si>
   <si>
     <t>일곱 난쟁이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브루트 포스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n^m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번째 방법 O(n^m) 2번쨰 방법 O(2^n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좆같네 아주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사탕 게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리모컨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테트로미노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카잉 달력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수 이어 쓰기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N과 M(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N과 M(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N과 M(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N과 M(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N과 M(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N과 M(6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -828,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2105,6 +2169,9 @@
       <c r="A63" s="3">
         <v>62</v>
       </c>
+      <c r="B63" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
@@ -2122,6 +2189,9 @@
       <c r="A64" s="3">
         <v>63</v>
       </c>
+      <c r="B64" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
@@ -2139,6 +2209,9 @@
       <c r="A65" s="3">
         <v>64</v>
       </c>
+      <c r="B65" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C65" s="3">
         <v>2</v>
       </c>
@@ -2156,6 +2229,9 @@
       <c r="A66" s="3">
         <v>65</v>
       </c>
+      <c r="B66" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C66" s="3">
         <v>3</v>
       </c>
@@ -2176,6 +2252,9 @@
       <c r="A67" s="3">
         <v>66</v>
       </c>
+      <c r="B67" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C67" s="3">
         <v>3</v>
       </c>
@@ -2193,6 +2272,9 @@
       <c r="A68" s="3">
         <v>67</v>
       </c>
+      <c r="B68" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C68" s="3">
         <v>3</v>
       </c>
@@ -2210,6 +2292,9 @@
       <c r="A69" s="3">
         <v>68</v>
       </c>
+      <c r="B69" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="C69" s="3">
         <v>2</v>
       </c>
@@ -2227,133 +2312,349 @@
       <c r="A70" s="3">
         <v>69</v>
       </c>
+      <c r="B70" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="3">
+        <v>3</v>
+      </c>
+      <c r="D70" s="3">
+        <v>3085</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" s="4">
+        <v>44213</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>70</v>
       </c>
+      <c r="B71" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1476</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F71" s="4">
+        <v>44213</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>71</v>
       </c>
+      <c r="B72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="3">
+        <v>3</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1107</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="4">
+        <v>44213</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>72</v>
       </c>
+      <c r="B73" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2</v>
+      </c>
+      <c r="D73" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="4">
+        <v>44213</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>73</v>
       </c>
+      <c r="B74" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="3">
+        <v>3</v>
+      </c>
+      <c r="D74" s="3">
+        <v>6064</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F74" s="4">
+        <v>44213</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>74</v>
       </c>
+      <c r="B75" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1748</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F75" s="4">
+        <v>44213</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>75</v>
       </c>
+      <c r="B76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3">
+        <v>9095</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F76" s="4">
+        <v>44213</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
         <v>76</v>
       </c>
+      <c r="B77" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="3">
+        <v>3</v>
+      </c>
+      <c r="D77" s="3">
+        <v>15649</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F77" s="4">
+        <v>44213</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>77</v>
       </c>
+      <c r="B78" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3">
+        <v>15650</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F78" s="4">
+        <v>44213</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>78</v>
       </c>
+      <c r="B79" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3">
+        <v>15651</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F79" s="4">
+        <v>44213</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B80" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3">
+        <v>15652</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F80" s="4">
+        <v>44213</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1</v>
+      </c>
+      <c r="D81" s="3">
+        <v>15654</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F81" s="4">
+        <v>44213</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B82" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1</v>
+      </c>
+      <c r="D82" s="3">
+        <v>15655</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F82" s="4">
+        <v>44213</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
         <v>95</v>
       </c>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79907A6C-CB60-4407-A94D-A80322A108AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B205FE04-6360-4F32-B57B-28CAB47BB042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -372,10 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>왜 뒤에서부터 오는지 이해가 잘 안 됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가장 큰 증가하는 부분 수열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,6 +461,10 @@
   </si>
   <si>
     <t>N과 M(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양 끝 수(1, n)을 제거하는 경우는 왜 빠져있는지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2179,7 +2179,7 @@
         <v>11055</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F63" s="4">
         <v>44210</v>
@@ -2199,7 +2199,7 @@
         <v>11722</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F64" s="4">
         <v>44210</v>
@@ -2219,7 +2219,7 @@
         <v>11054</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F65" s="4">
         <v>44210</v>
@@ -2239,13 +2239,13 @@
         <v>13398</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F66" s="4">
         <v>44210</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
@@ -2262,7 +2262,7 @@
         <v>2133</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F67" s="4">
         <v>44210</v>
@@ -2282,7 +2282,7 @@
         <v>17404</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F68" s="4">
         <v>44211</v>
@@ -2293,7 +2293,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C69" s="3">
         <v>2</v>
@@ -2302,7 +2302,7 @@
         <v>2309</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F69" s="4">
         <v>44211</v>
@@ -2313,7 +2313,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C70" s="3">
         <v>3</v>
@@ -2322,7 +2322,7 @@
         <v>3085</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F70" s="4">
         <v>44213</v>
@@ -2333,7 +2333,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C71" s="3">
         <v>2</v>
@@ -2342,7 +2342,7 @@
         <v>1476</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F71" s="4">
         <v>44213</v>
@@ -2353,7 +2353,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" s="3">
         <v>3</v>
@@ -2362,7 +2362,7 @@
         <v>1107</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F72" s="4">
         <v>44213</v>
@@ -2373,7 +2373,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C73" s="3">
         <v>2</v>
@@ -2382,13 +2382,13 @@
         <v>14500</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F73" s="4">
         <v>44213</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
@@ -2396,7 +2396,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" s="3">
         <v>3</v>
@@ -2405,7 +2405,7 @@
         <v>6064</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F74" s="4">
         <v>44213</v>
@@ -2416,7 +2416,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
@@ -2425,7 +2425,7 @@
         <v>1748</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F75" s="4">
         <v>44213</v>
@@ -2436,7 +2436,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -2456,7 +2456,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77" s="3">
         <v>3</v>
@@ -2465,13 +2465,13 @@
         <v>15649</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F77" s="4">
         <v>44213</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
@@ -2479,7 +2479,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
@@ -2488,13 +2488,13 @@
         <v>15650</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F78" s="4">
         <v>44213</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
@@ -2502,7 +2502,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
@@ -2511,13 +2511,13 @@
         <v>15651</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F79" s="4">
         <v>44213</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
@@ -2525,7 +2525,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -2534,13 +2534,13 @@
         <v>15652</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F80" s="4">
         <v>44213</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
@@ -2548,7 +2548,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
@@ -2557,13 +2557,13 @@
         <v>15654</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F81" s="4">
         <v>44213</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
@@ -2571,7 +2571,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -2580,13 +2580,13 @@
         <v>15655</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F82" s="4">
         <v>44213</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B205FE04-6360-4F32-B57B-28CAB47BB042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58C4D9D-56EF-4FD2-8D73-F73994CE63C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="112">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,6 +465,26 @@
   </si>
   <si>
     <t>양 끝 수(1, n)을 제거하는 경우는 왜 빠져있는지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번째 방법 8ms, 2번째 방법 4ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N과 M(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N과 M(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N과 M(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N과 M(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2593,20 +2613,83 @@
       <c r="A83" s="3">
         <v>82</v>
       </c>
+      <c r="B83" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1</v>
+      </c>
+      <c r="D83" s="3">
+        <v>15656</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F83" s="4">
+        <v>44215</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <v>83</v>
       </c>
+      <c r="B84" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3">
+        <v>15657</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F84" s="4">
+        <v>44215</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
         <v>84</v>
       </c>
+      <c r="B85" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="3">
+        <v>3</v>
+      </c>
+      <c r="D85" s="3">
+        <v>15663</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F85" s="4">
+        <v>44215</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="3">
+        <v>2</v>
+      </c>
+      <c r="D86" s="3">
+        <v>15664</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F86" s="4">
+        <v>44215</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58C4D9D-56EF-4FD2-8D73-F73994CE63C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1563D9-56B5-49ED-9283-A23F765A681F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="120">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,6 +485,38 @@
   </si>
   <si>
     <t>N과 M(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N과 M(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N과 M(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 수열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 수열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 수열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차이를 최대로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외판원 순회2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로또</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2696,40 +2728,160 @@
       <c r="A87" s="3">
         <v>86</v>
       </c>
+      <c r="B87" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="3">
+        <v>2</v>
+      </c>
+      <c r="D87" s="3">
+        <v>15665</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F87" s="4">
+        <v>44217</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>87</v>
       </c>
+      <c r="B88" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1</v>
+      </c>
+      <c r="D88" s="3">
+        <v>15666</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F88" s="4">
+        <v>44217</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>88</v>
       </c>
+      <c r="B89" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="3">
+        <v>2</v>
+      </c>
+      <c r="D89" s="3">
+        <v>10972</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F89" s="4">
+        <v>44217</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <v>89</v>
       </c>
+      <c r="B90" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3">
+        <v>10973</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F90" s="4">
+        <v>44217</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <v>90</v>
       </c>
+      <c r="B91" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1</v>
+      </c>
+      <c r="D91" s="3">
+        <v>10974</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F91" s="4">
+        <v>44217</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
         <v>91</v>
       </c>
+      <c r="B92" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3">
+        <v>10819</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F92" s="4">
+        <v>44217</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <v>92</v>
       </c>
+      <c r="B93" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1</v>
+      </c>
+      <c r="D93" s="3">
+        <v>10971</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F93" s="4">
+        <v>44217</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" s="3">
+        <v>2</v>
+      </c>
+      <c r="D94" s="3">
+        <v>6603</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F94" s="4">
+        <v>44217</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1563D9-56B5-49ED-9283-A23F765A681F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B46604D-F1D6-466E-897E-8838FAD04CBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="126">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -517,6 +517,33 @@
   </si>
   <si>
     <t>로또</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector를 Call by Reference로 보내주는게 존나 빠름
+call by reference -&gt; 36ms
+call by value -&gt; 156ms
+array -&gt; 140ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브루트 포스 (순열)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브루트 포스 (재귀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타트와 링크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -945,7 +972,7 @@
   <dimension ref="A1:J347"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87:B94"/>
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -955,7 +982,7 @@
     <col min="3" max="4" width="8.6640625" style="3"/>
     <col min="5" max="5" width="45.9140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.4140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="44" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2769,7 +2796,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C89" s="3">
         <v>2</v>
@@ -2789,7 +2816,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -2809,7 +2836,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
@@ -2829,7 +2856,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
@@ -2849,7 +2876,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
@@ -2869,7 +2896,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C94" s="3">
         <v>2</v>
@@ -2888,88 +2915,151 @@
       <c r="A95" s="3">
         <v>94</v>
       </c>
+      <c r="B95" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1</v>
+      </c>
+      <c r="D95" s="3">
+        <v>9095</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F95" s="4">
+        <v>44219</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B96" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1759</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F96" s="4">
+        <v>44219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B97" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2</v>
+      </c>
+      <c r="D97" s="3">
+        <v>14501</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F97" s="4">
+        <v>44219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="68" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B98" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="3">
+        <v>2</v>
+      </c>
+      <c r="D98" s="3">
+        <v>14889</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F98" s="4">
+        <v>44219</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" s="3">
         <v>111</v>
       </c>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B46604D-F1D6-466E-897E-8838FAD04CBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4801EDA0-ACC1-4F6E-BA51-ED2E6B89BA18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="133">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,6 +544,35 @@
   </si>
   <si>
     <t>스타트와 링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어렵네 수밤 백트래킹 죽이고싶다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트마스킹 확인
+비트마스킹이랑 어레이랑 별 차이 없음..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크와 스타트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부등호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞춰봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브루트 포스 (비트마스킹)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -971,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2998,20 +3027,74 @@
       <c r="A99" s="3">
         <v>98</v>
       </c>
+      <c r="B99" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99" s="3">
+        <v>15661</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
         <v>99</v>
       </c>
+      <c r="B100" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" s="3">
+        <v>2</v>
+      </c>
+      <c r="D100" s="3">
+        <v>2529</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B101" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" s="3">
+        <v>3</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1248</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
         <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" s="3">
+        <v>3</v>
+      </c>
+      <c r="D102" s="3">
+        <v>11723</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4801EDA0-ACC1-4F6E-BA51-ED2E6B89BA18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF5BA4B-06E4-4F44-BD5B-FC865FA4B39F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="137">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -551,11 +551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비트마스킹 확인
-비트마스킹이랑 어레이랑 별 차이 없음..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>링크와 스타트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -572,7 +567,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>브루트 포스 (비트마스킹)</t>
+    <t>브루트 포스 (비트마스크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트마스크 확인
+비트마스크이랑 어레이랑 별 차이 없음..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종이 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부분수열의 합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1000,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3037,7 +3053,10 @@
         <v>15661</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="F99" s="4">
+        <v>44220</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
@@ -3054,7 +3073,10 @@
         <v>2529</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="F100" s="4">
+        <v>44220</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
@@ -3071,7 +3093,10 @@
         <v>1248</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="F101" s="4">
+        <v>44220</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>126</v>
@@ -3082,39 +3107,102 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C102" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D102" s="3">
         <v>11723</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="F102" s="4">
+        <v>44220</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
         <v>102</v>
       </c>
+      <c r="B103" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C103" s="3">
+        <v>3</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1182</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F103" s="4">
+        <v>44221</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="3">
         <v>103</v>
       </c>
+      <c r="B104" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C104" s="3">
+        <v>2</v>
+      </c>
+      <c r="D104" s="3">
+        <v>14889</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F104" s="4">
+        <v>44221</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="3">
         <v>104</v>
       </c>
+      <c r="B105" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105" s="3">
+        <v>3</v>
+      </c>
+      <c r="D105" s="3">
+        <v>14391</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F105" s="4">
+        <v>44221</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="3">
         <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C106" s="3">
+        <v>1</v>
+      </c>
+      <c r="D106" s="3">
+        <v>13023</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F106" s="4">
+        <v>44221</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF5BA4B-06E4-4F44-BD5B-FC865FA4B39F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E78E309-7D97-49BF-A11F-4AD898CA84C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="144">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,7 +588,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그래프</t>
+    <t>그래프 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS와 BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결 요소의 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이분 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단지번호 붙이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬의 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미로 탐색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1016,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="C100" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108:F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3209,30 +3237,120 @@
       <c r="A107" s="3">
         <v>106</v>
       </c>
+      <c r="B107" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107" s="3">
+        <v>1</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1260</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F107" s="4">
+        <v>44225</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" s="3">
         <v>107</v>
       </c>
+      <c r="B108" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1</v>
+      </c>
+      <c r="D108" s="3">
+        <v>11724</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F108" s="4">
+        <v>44225</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" s="3">
         <v>108</v>
       </c>
+      <c r="B109" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C109" s="3">
+        <v>3</v>
+      </c>
+      <c r="D109" s="3">
+        <v>1707</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F109" s="4">
+        <v>44225</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" s="3">
         <v>109</v>
       </c>
+      <c r="B110" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1</v>
+      </c>
+      <c r="D110" s="3">
+        <v>2667</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F110" s="4">
+        <v>44225</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" s="3">
         <v>110</v>
       </c>
+      <c r="B111" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" s="3">
+        <v>2</v>
+      </c>
+      <c r="D111" s="3">
+        <v>4963</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F111" s="4">
+        <v>44225</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" s="3">
         <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" s="3">
+        <v>2</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2178</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F112" s="4">
+        <v>44225</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E78E309-7D97-49BF-A11F-4AD898CA84C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B59D32-ADCB-4C29-8693-E2BCE4B1256F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="150">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -617,6 +617,30 @@
   </si>
   <si>
     <t>미로 탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존나게 어렵네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이트의 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two Dots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 지하철 2호선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS 스페셜 저지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C100" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108:F112"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3353,82 +3377,160 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" s="3">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B113" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113" s="3">
+        <v>3</v>
+      </c>
+      <c r="D113" s="3">
+        <v>7576</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F113" s="4">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" s="3">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B114" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
+      <c r="D114" s="3">
+        <v>7562</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F114" s="4">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" s="3">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B115" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" s="3">
+        <v>3</v>
+      </c>
+      <c r="D115" s="3">
+        <v>16929</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F115" s="4">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" s="3">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B116" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C116" s="3">
+        <v>3</v>
+      </c>
+      <c r="D116" s="3">
+        <v>16947</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F116" s="4">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" s="3">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B117" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117" s="3">
+        <v>3</v>
+      </c>
+      <c r="D117" s="3">
+        <v>16940</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F117" s="4">
+        <v>44226</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" s="3">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" s="3">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" s="3">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" s="3">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" s="3">
         <v>127</v>
       </c>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B59D32-ADCB-4C29-8693-E2BCE4B1256F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A619F0A-B317-4798-B54F-594E4C9FC843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="159">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -641,6 +641,42 @@
   </si>
   <si>
     <t>BFS 스페셜 저지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 방법이 훨씬 빠름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deque을 쓰는게 가장 좋은 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨바꼭질3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이모티콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨바꼭질4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨바꼭질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS 스페셜 저지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3484,30 +3520,126 @@
       <c r="A118" s="3">
         <v>117</v>
       </c>
+      <c r="B118" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C118" s="3">
+        <v>3</v>
+      </c>
+      <c r="D118" s="3">
+        <v>16964</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F118" s="4">
+        <v>44227</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" s="3">
         <v>118</v>
       </c>
+      <c r="B119" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119" s="3">
+        <v>2</v>
+      </c>
+      <c r="D119" s="3">
+        <v>2146</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F119" s="4">
+        <v>44227</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" s="3">
         <v>119</v>
       </c>
+      <c r="B120" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
+      <c r="D120" s="3">
+        <v>1697</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F120" s="4">
+        <v>44227</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" s="3">
         <v>120</v>
       </c>
+      <c r="B121" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1</v>
+      </c>
+      <c r="D121" s="3">
+        <v>13913</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F121" s="4">
+        <v>44227</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" s="3">
         <v>121</v>
       </c>
+      <c r="B122" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C122" s="3">
+        <v>3</v>
+      </c>
+      <c r="D122" s="3">
+        <v>14226</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F122" s="4">
+        <v>44227</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" s="3">
         <v>122</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C123" s="3">
+        <v>2</v>
+      </c>
+      <c r="D123" s="3">
+        <v>13549</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F123" s="4">
+        <v>44227</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A619F0A-B317-4798-B54F-594E4C9FC843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D37733-C16E-4BC7-A5BA-AA54FFC385F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="5870" yWindow="1020" windowWidth="12950" windowHeight="6950" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="169">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -677,6 +677,46 @@
   </si>
   <si>
     <t>DFS 스페셜 저지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS(Deque)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리 순회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리 탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리 지름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postorder(dfs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리의 지름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리의 부모 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리의 높이와 너비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고스팟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1104,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView tabSelected="1" topLeftCell="B118" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3624,7 +3664,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C123" s="3">
         <v>2</v>
@@ -3646,103 +3686,199 @@
       <c r="A124" s="3">
         <v>123</v>
       </c>
+      <c r="B124" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1261</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F124" s="4">
+        <v>44228</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" s="3">
         <v>124</v>
       </c>
+      <c r="B125" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C125" s="3">
+        <v>1</v>
+      </c>
+      <c r="D125" s="3">
+        <v>1991</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F125" s="4">
+        <v>44228</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" s="3">
         <v>125</v>
       </c>
+      <c r="B126" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C126" s="3">
+        <v>2</v>
+      </c>
+      <c r="D126" s="3">
+        <v>2250</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F126" s="4">
+        <v>44228</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" s="3">
         <v>126</v>
       </c>
+      <c r="B127" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C127" s="3">
+        <v>2</v>
+      </c>
+      <c r="D127" s="3">
+        <v>11725</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F127" s="4">
+        <v>44228</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" s="3">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B128" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C128" s="3">
+        <v>3</v>
+      </c>
+      <c r="D128" s="3">
+        <v>1167</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F128" s="4">
+        <v>44228</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" s="3">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B129" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C129" s="3">
+        <v>3</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1967</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F129" s="4">
+        <v>44228</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" s="3">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" s="3">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" s="3">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" s="3">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" s="3">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" s="3">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" s="3">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" s="3">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" s="3">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" s="3">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" s="3">
         <v>143</v>
       </c>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D37733-C16E-4BC7-A5BA-AA54FFC385F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08B266A-AF50-4B6B-A945-C17BCEC462F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5870" yWindow="1020" windowWidth="12950" windowHeight="6950" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="173">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -717,6 +717,22 @@
   </si>
   <si>
     <t>알고스팟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약수의 합2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약수의 합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1144,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B118" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3812,20 +3828,80 @@
       <c r="A130" s="3">
         <v>129</v>
       </c>
+      <c r="B130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="3">
+        <v>2</v>
+      </c>
+      <c r="D130" s="3">
+        <v>4375</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F130" s="4">
+        <v>44231</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" s="3">
         <v>130</v>
       </c>
+      <c r="B131" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="3">
+        <v>1</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1037</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F131" s="4">
+        <v>44231</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" s="3">
         <v>131</v>
       </c>
+      <c r="B132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="3">
+        <v>3</v>
+      </c>
+      <c r="D132" s="3">
+        <v>17427</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F132" s="4">
+        <v>44231</v>
+      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" s="3">
         <v>132</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="3">
+        <v>2</v>
+      </c>
+      <c r="D133" s="3">
+        <v>17425</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F133" s="4">
+        <v>44231</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08B266A-AF50-4B6B-A945-C17BCEC462F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE327182-BE50-47E3-B0B0-4574673E305D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="176">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -733,6 +733,18 @@
   </si>
   <si>
     <t>`1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브루트포스 (N과 M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트마스크 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM과 K(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1161,7 +1173,7 @@
   <dimension ref="A1:J347"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3907,6 +3919,24 @@
     <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" s="3">
         <v>133</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C134" s="3">
+        <v>2</v>
+      </c>
+      <c r="D134" s="3">
+        <v>18290</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F134" s="4">
+        <v>44232</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE327182-BE50-47E3-B0B0-4574673E305D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A354E37-0D4C-4E8D-9F51-B5242AB9F932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="185">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -745,6 +745,42 @@
   </si>
   <si>
     <t>NM과 K(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 돌리기3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시뮬레이션과 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래곤 커브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇 청소기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톱니바퀴(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경사로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위 굴리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 돌리기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 돌리기1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1172,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
-      <selection activeCell="F135" sqref="F135"/>
+    <sheetView tabSelected="1" topLeftCell="C132" workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3943,40 +3979,160 @@
       <c r="A135" s="3">
         <v>134</v>
       </c>
+      <c r="B135" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C135" s="3">
+        <v>1</v>
+      </c>
+      <c r="D135" s="3">
+        <v>19635</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F135" s="4">
+        <v>44232</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" s="3">
         <v>135</v>
       </c>
+      <c r="B136" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C136" s="3">
+        <v>2</v>
+      </c>
+      <c r="D136" s="3">
+        <v>19626</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F136" s="4">
+        <v>44234</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" s="3">
         <v>136</v>
       </c>
+      <c r="B137" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C137" s="3">
+        <v>2</v>
+      </c>
+      <c r="D137" s="3">
+        <v>19627</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F137" s="4">
+        <v>44234</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" s="3">
         <v>137</v>
       </c>
+      <c r="B138" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C138" s="3">
+        <v>2</v>
+      </c>
+      <c r="D138" s="3">
+        <v>14499</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F138" s="4">
+        <v>44234</v>
+      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" s="3">
         <v>138</v>
       </c>
+      <c r="B139" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C139" s="3">
+        <v>3</v>
+      </c>
+      <c r="D139" s="3">
+        <v>14890</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F139" s="4">
+        <v>44234</v>
+      </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" s="3">
         <v>139</v>
       </c>
+      <c r="B140" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C140" s="3">
+        <v>1</v>
+      </c>
+      <c r="D140" s="3">
+        <v>15662</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F140" s="4">
+        <v>44234</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" s="3">
         <v>140</v>
       </c>
+      <c r="B141" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C141" s="3">
+        <v>1</v>
+      </c>
+      <c r="D141" s="3">
+        <v>14503</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F141" s="4">
+        <v>44234</v>
+      </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" s="3">
         <v>141</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C142" s="3">
+        <v>2</v>
+      </c>
+      <c r="D142" s="3">
+        <v>15685</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F142" s="4">
+        <v>44235</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A354E37-0D4C-4E8D-9F51-B5242AB9F932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30D01C0-EBC7-4176-BBCF-4CE877451802}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="191">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -781,6 +781,30 @@
   </si>
   <si>
     <t>배열 돌리기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨베이어 벨트 위의 로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 돌리기6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 복원하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정육면체 전개도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겉넓이 구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1208,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C132" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="F144" sqref="F144:F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3986,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="D135" s="3">
-        <v>19635</v>
+        <v>16935</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>176</v>
@@ -4006,7 +4030,7 @@
         <v>2</v>
       </c>
       <c r="D136" s="3">
-        <v>19626</v>
+        <v>16926</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>184</v>
@@ -4026,7 +4050,7 @@
         <v>2</v>
       </c>
       <c r="D137" s="3">
-        <v>19627</v>
+        <v>16927</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>183</v>
@@ -4139,88 +4163,178 @@
       <c r="A143" s="3">
         <v>142</v>
       </c>
+      <c r="B143" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C143" s="3">
+        <v>1</v>
+      </c>
+      <c r="D143" s="3">
+        <v>2290</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F143" s="4">
+        <v>44235</v>
+      </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" s="3">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B144" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C144" s="3">
+        <v>1</v>
+      </c>
+      <c r="D144" s="3">
+        <v>16931</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F144" s="4">
+        <v>44235</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="3">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B145" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C145" s="3">
+        <v>3</v>
+      </c>
+      <c r="D145" s="3">
+        <v>1917</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F145" s="4">
+        <v>44235</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="3">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B146" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C146" s="3">
+        <v>1</v>
+      </c>
+      <c r="D146" s="3">
+        <v>16967</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F146" s="4">
+        <v>44235</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="3">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B147" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C147" s="3">
+        <v>3</v>
+      </c>
+      <c r="D147" s="3">
+        <v>20327</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F147" s="4">
+        <v>44235</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="3">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B148" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1</v>
+      </c>
+      <c r="D148" s="3">
+        <v>20055</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F148" s="4">
+        <v>44235</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="3">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="3">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="3">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="3">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="3">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" s="3">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" s="3">
         <v>159</v>
       </c>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30D01C0-EBC7-4176-BBCF-4CE877451802}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D71A3F-AC94-4A91-9BEF-15122587355C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="194">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -805,6 +805,18 @@
   </si>
   <si>
     <t>LCD Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브루트포스 (재귀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연산자 끼워넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연산자 끼워넣기(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1232,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144:F148"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4283,15 +4295,60 @@
       <c r="A149" s="3">
         <v>148</v>
       </c>
+      <c r="B149" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1</v>
+      </c>
+      <c r="D149" s="3">
+        <v>14225</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F149" s="4">
+        <v>44237</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="3">
         <v>149</v>
       </c>
+      <c r="B150" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C150" s="3">
+        <v>1</v>
+      </c>
+      <c r="D150" s="3">
+        <v>14888</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F150" s="4">
+        <v>44237</v>
+      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="3">
         <v>150</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C151" s="3">
+        <v>1</v>
+      </c>
+      <c r="D151" s="3">
+        <v>15658</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F151" s="4">
+        <v>44237</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D71A3F-AC94-4A91-9BEF-15122587355C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC32459F-18D7-4CA9-AAFA-2E338E0030BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="196">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -817,6 +817,14 @@
   </si>
   <si>
     <t>연산자 끼워넣기(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지 모으기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 동전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1245,7 +1253,7 @@
   <dimension ref="A1:J347"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="G151" sqref="G151"/>
+      <selection activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4355,15 +4363,60 @@
       <c r="A152" s="3">
         <v>151</v>
       </c>
+      <c r="B152" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C152" s="3">
+        <v>2</v>
+      </c>
+      <c r="D152" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F152" s="4">
+        <v>44238</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="3">
         <v>152</v>
       </c>
+      <c r="B153" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C153" s="3">
+        <v>2</v>
+      </c>
+      <c r="D153" s="3">
+        <v>16197</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F153" s="4">
+        <v>44238</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="3">
         <v>153</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C154" s="3">
+        <v>1</v>
+      </c>
+      <c r="D154" s="3">
+        <v>16198</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F154" s="4">
+        <v>44238</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC32459F-18D7-4CA9-AAFA-2E338E0030BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8C899B-6A66-4C54-A61D-1E87BC0DFCF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="204">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -825,6 +825,37 @@
   </si>
   <si>
     <t>두 동전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재귀, 순열 둘 다 시간복잡도 O(n!)으로 같음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브루트포스 (순열)</t>
+  </si>
+  <si>
+    <t>브루트포스 (순열)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브루트포스 (비트마스크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단어 수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스도미노쿠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스도쿠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-Queen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1252,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="G153" sqref="G153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4219,7 +4250,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -4239,7 +4270,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -4259,7 +4290,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -4279,7 +4310,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -4299,7 +4330,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -4319,7 +4350,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -4339,7 +4370,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -4359,7 +4390,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -4379,7 +4410,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -4399,7 +4430,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -4419,34 +4450,127 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" s="3">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B155" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C155" s="3">
+        <v>3</v>
+      </c>
+      <c r="D155" s="3">
+        <v>9663</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F155" s="4">
+        <v>44241</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" s="3">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B156" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C156" s="3">
+        <v>3</v>
+      </c>
+      <c r="D156" s="3">
+        <v>2580</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F156" s="4">
+        <v>44241</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" s="3">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B157" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C157" s="3">
+        <v>3</v>
+      </c>
+      <c r="D157" s="3">
+        <v>4574</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F157" s="4">
+        <v>44241</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" s="3">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B158" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C158" s="3">
+        <v>3</v>
+      </c>
+      <c r="D158" s="3">
+        <v>1339</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F158" s="4">
+        <v>44241</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" s="3">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B159" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="3">
+        <v>14888</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F159" s="4">
+        <v>44241</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" s="3">
         <v>159</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C160" s="3">
+        <v>2</v>
+      </c>
+      <c r="D160" s="3">
+        <v>14225</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F160" s="4">
+        <v>44241</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8C899B-6A66-4C54-A61D-1E87BC0DFCF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA439B9-54C7-42A3-93DB-8B01E2BDB776}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="205">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -856,6 +856,10 @@
   </si>
   <si>
     <t>N-Queen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재귀, 비트마스크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1283,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G159" sqref="G159"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="K162" sqref="K162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4573,82 +4577,91 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" s="3">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C161" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" s="3">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C162" s="3">
+        <v>3</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" s="3">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" s="3">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" s="3">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" s="3">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" s="3">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" s="3">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" s="3">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" s="3">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" s="3">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" s="3">
         <v>175</v>
       </c>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA439B9-54C7-42A3-93DB-8B01E2BDB776}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B59A1B-BCD1-4508-AE7F-EAC369674080}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="208">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -859,7 +859,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재귀, 비트마스크</t>
+    <t>재귀, 비트마스크 -&gt; 도저히 비트마스크로 풀 자신이 없다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2048 (Easy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구슬 탈출2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가르침</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1287,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="K162" sqref="K162"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162:F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1298,7 +1310,7 @@
     <col min="3" max="4" width="8.6640625" style="3"/>
     <col min="5" max="5" width="45.9140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44" style="3" customWidth="1"/>
+    <col min="7" max="7" width="52.1640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4581,16 +4593,40 @@
       <c r="A161" s="3">
         <v>160</v>
       </c>
+      <c r="B161" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="C161" s="3">
         <v>3</v>
+      </c>
+      <c r="D161" s="3">
+        <v>1063</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F161" s="4">
+        <v>44242</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" s="3">
         <v>161</v>
       </c>
+      <c r="B162" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="C162" s="3">
         <v>3</v>
+      </c>
+      <c r="D162" s="3">
+        <v>13460</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F162" s="4">
+        <v>44242</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>204</v>
@@ -4599,6 +4635,21 @@
     <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" s="3">
         <v>162</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C163" s="3">
+        <v>3</v>
+      </c>
+      <c r="D163" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F163" s="4">
+        <v>44242</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B59A1B-BCD1-4508-AE7F-EAC369674080}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C67CDFB-2AC5-41A0-9C64-68DFD21EEDAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="212">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -872,6 +872,22 @@
   </si>
   <si>
     <t>가르침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브루트포스 (기타)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수들의 합2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부분합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소수의 연속합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1300,7 +1316,7 @@
   <dimension ref="A1:J347"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162:F163"/>
+      <selection activeCell="F165" sqref="F165:F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4656,15 +4672,60 @@
       <c r="A164" s="3">
         <v>163</v>
       </c>
+      <c r="B164" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="3">
+        <v>2003</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F164" s="4">
+        <v>44243</v>
+      </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" s="3">
         <v>164</v>
       </c>
+      <c r="B165" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="3">
+        <v>1806</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F165" s="4">
+        <v>44243</v>
+      </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" s="3">
         <v>165</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="3">
+        <v>1644</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F166" s="4">
+        <v>44243</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C67CDFB-2AC5-41A0-9C64-68DFD21EEDAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2D440C-E226-4076-BA3F-F049ADEEFB05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="217">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -888,6 +888,26 @@
   </si>
   <si>
     <t>소수의 연속합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱀과 사다리 게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육각 보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 배열의 합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부분수열의 합2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1315,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="F165" sqref="F165:F166"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168:F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4732,20 +4752,80 @@
       <c r="A167" s="3">
         <v>166</v>
       </c>
+      <c r="B167" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C167" s="3">
+        <v>3</v>
+      </c>
+      <c r="D167" s="3">
+        <v>1208</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F167" s="4">
+        <v>44248</v>
+      </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" s="3">
         <v>167</v>
       </c>
+      <c r="B168" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C168" s="3">
+        <v>3</v>
+      </c>
+      <c r="D168" s="3">
+        <v>2143</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F168" s="4">
+        <v>44248</v>
+      </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" s="3">
         <v>168</v>
       </c>
+      <c r="B169" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C169" s="3">
+        <v>3</v>
+      </c>
+      <c r="D169" s="3">
+        <v>12946</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F169" s="4">
+        <v>44248</v>
+      </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" s="3">
         <v>169</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C170" s="3">
+        <v>2</v>
+      </c>
+      <c r="D170" s="3">
+        <v>16928</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F170" s="4">
+        <v>44248</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2D440C-E226-4076-BA3F-F049ADEEFB05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8B05A0-D40E-4FDE-B325-657482B75CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="220">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -908,6 +908,18 @@
   </si>
   <si>
     <t>부분수열의 합2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌 그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데스 나이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1336,7 +1348,7 @@
   <dimension ref="A1:J347"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="F168" sqref="F168:F170"/>
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4832,15 +4844,60 @@
       <c r="A171" s="3">
         <v>170</v>
       </c>
+      <c r="B171" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="3">
+        <v>16948</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F171" s="4">
+        <v>44249</v>
+      </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" s="3">
         <v>171</v>
       </c>
+      <c r="B172" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C172" s="3">
+        <v>2</v>
+      </c>
+      <c r="D172" s="3">
+        <v>14502</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F172" s="4">
+        <v>44249</v>
+      </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" s="3">
         <v>172</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C173" s="3">
+        <v>3</v>
+      </c>
+      <c r="D173" s="3">
+        <v>12886</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F173" s="4">
+        <v>44249</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8B05A0-D40E-4FDE-B325-657482B75CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB64801-FC39-4433-A7ED-E253158D56D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="223">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -920,6 +920,18 @@
   </si>
   <si>
     <t>데스 나이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 부수고 이동하기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 부수고 이동하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 부수고 이동하기4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1347,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="F175" sqref="F175:F176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4904,15 +4916,60 @@
       <c r="A174" s="3">
         <v>173</v>
       </c>
+      <c r="B174" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C174" s="3">
+        <v>3</v>
+      </c>
+      <c r="D174" s="3">
+        <v>2206</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F174" s="4">
+        <v>44250</v>
+      </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" s="3">
         <v>174</v>
       </c>
+      <c r="B175" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C175" s="3">
+        <v>3</v>
+      </c>
+      <c r="D175" s="3">
+        <v>16946</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F175" s="4">
+        <v>44250</v>
+      </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" s="3">
         <v>175</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C176" s="3">
+        <v>2</v>
+      </c>
+      <c r="D176" s="3">
+        <v>14442</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F176" s="4">
+        <v>44250</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB64801-FC39-4433-A7ED-E253158D56D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2981C50C-BE14-4507-8B83-577E856A958A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="225">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -932,6 +932,14 @@
   </si>
   <si>
     <t>벽 부수고 이동하기4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 부수고 이동하기3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움직이는 미로 탈출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1360,7 +1368,7 @@
   <dimension ref="A1:J347"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F175" sqref="F175:F176"/>
+      <selection activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4972,82 +4980,112 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" s="3">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B177" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C177" s="3">
+        <v>3</v>
+      </c>
+      <c r="D177" s="3">
+        <v>16933</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F177" s="4">
+        <v>44251</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" s="3">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B178" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="3">
+        <v>16954</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F178" s="4">
+        <v>44251</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" s="3">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" s="3">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" s="3">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" s="3">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" s="3">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185" s="3">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" s="3">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188" s="3">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189" s="3">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190" s="3">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192" s="3">
         <v>191</v>
       </c>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2981C50C-BE14-4507-8B83-577E856A958A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE690D61-689E-4CB4-91B0-A4E9A01987CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="227">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -940,6 +940,14 @@
   </si>
   <si>
     <t>움직이는 미로 탈출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저 통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아기 상어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1368,7 +1376,7 @@
   <dimension ref="A1:J347"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F177" sqref="F177"/>
+      <selection activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5024,10 +5032,40 @@
       <c r="A179" s="3">
         <v>178</v>
       </c>
+      <c r="B179" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C179" s="3">
+        <v>2</v>
+      </c>
+      <c r="D179" s="3">
+        <v>16236</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F179" s="4">
+        <v>44252</v>
+      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" s="3">
         <v>179</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C180" s="3">
+        <v>3</v>
+      </c>
+      <c r="D180" s="3">
+        <v>6087</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F180" s="4">
+        <v>44252</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE690D61-689E-4CB4-91B0-A4E9A01987CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89D4C11-DDA9-426B-8C40-240228E55067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="230">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -948,6 +948,18 @@
   </si>
   <si>
     <t>아기 상어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4연산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적록색약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소수 경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1375,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F180" sqref="F180"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="F182" sqref="F182:F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5072,15 +5084,60 @@
       <c r="A181" s="3">
         <v>180</v>
       </c>
+      <c r="B181" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C181" s="3">
+        <v>2</v>
+      </c>
+      <c r="D181" s="3">
+        <v>1963</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F181" s="4">
+        <v>44253</v>
+      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" s="3">
         <v>181</v>
       </c>
+      <c r="B182" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1</v>
+      </c>
+      <c r="D182" s="3">
+        <v>10026</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F182" s="4">
+        <v>44253</v>
+      </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" s="3">
         <v>182</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C183" s="3">
+        <v>3</v>
+      </c>
+      <c r="D183" s="3">
+        <v>14395</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F183" s="4">
+        <v>44253</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89D4C11-DDA9-426B-8C40-240228E55067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B46356-4D59-48CA-A530-85D9FB379D92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="233">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -960,6 +960,18 @@
   </si>
   <si>
     <t>소수 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸라 어렵네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타트링크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1387,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="F182" sqref="F182:F183"/>
+    <sheetView tabSelected="1" topLeftCell="B175" workbookViewId="0">
+      <selection activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5000,7 +5012,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -5020,7 +5032,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -5040,7 +5052,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -5060,7 +5072,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -5080,7 +5092,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -5100,7 +5112,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -5120,7 +5132,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -5140,47 +5152,74 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184" s="3">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B184" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C184" s="3">
+        <v>1</v>
+      </c>
+      <c r="D184" s="3">
+        <v>5014</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185" s="3">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B185" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C185" s="3">
+        <v>3</v>
+      </c>
+      <c r="D185" s="3">
+        <v>9376</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" s="3">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188" s="3">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189" s="3">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190" s="3">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -5971,8 +6010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32F6238-BFDD-4534-8DFC-B067DB6CF073}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B46356-4D59-48CA-A530-85D9FB379D92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED21EAD-3378-41F0-99E8-2BD5D9A0ED5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="234">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -972,6 +972,10 @@
   </si>
   <si>
     <t>스타트링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성곽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1399,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B175" workbookViewId="0">
-      <selection activeCell="E184" sqref="E184"/>
+    <sheetView tabSelected="1" topLeftCell="B178" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5168,6 +5172,9 @@
       <c r="E184" s="3" t="s">
         <v>232</v>
       </c>
+      <c r="F184" s="4">
+        <v>44254</v>
+      </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185" s="3">
@@ -5185,6 +5192,9 @@
       <c r="E185" s="3" t="s">
         <v>231</v>
       </c>
+      <c r="F185" s="4">
+        <v>44254</v>
+      </c>
       <c r="G185" s="3" t="s">
         <v>230</v>
       </c>
@@ -5193,20 +5203,56 @@
       <c r="A186" s="3">
         <v>185</v>
       </c>
+      <c r="B186" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" s="3">
         <v>186</v>
       </c>
+      <c r="B187" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188" s="3">
         <v>187</v>
       </c>
+      <c r="B188" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C188" s="3">
+        <v>3</v>
+      </c>
+      <c r="D188" s="3">
+        <v>4991</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F188" s="4">
+        <v>44263</v>
+      </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189" s="3">
         <v>188</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C189" s="3">
+        <v>2</v>
+      </c>
+      <c r="D189" s="3">
+        <v>2234</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F189" s="4">
+        <v>44263</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED21EAD-3378-41F0-99E8-2BD5D9A0ED5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7E99A5-C87F-4515-A7CB-4E62F428E29D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="236">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -976,6 +976,14 @@
   </si>
   <si>
     <t>성곽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아기 상어2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말이 되고픈 원숭이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1404,7 +1412,7 @@
   <dimension ref="A1:J347"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B178" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+      <selection activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5206,6 +5214,18 @@
       <c r="B186" s="3" t="s">
         <v>151</v>
       </c>
+      <c r="C186" s="3">
+        <v>2</v>
+      </c>
+      <c r="D186" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F186" s="4">
+        <v>44264</v>
+      </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" s="3">
@@ -5213,6 +5233,18 @@
       </c>
       <c r="B187" s="3" t="s">
         <v>151</v>
+      </c>
+      <c r="C187" s="3">
+        <v>1</v>
+      </c>
+      <c r="D187" s="3">
+        <v>17086</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F187" s="4">
+        <v>44264</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7E99A5-C87F-4515-A7CB-4E62F428E29D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED26E38-1A4C-4E8E-B53A-E201B5C9CC7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="238">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -984,6 +984,14 @@
   </si>
   <si>
     <t>말이 되고픈 원숭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 하노이 탑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1412,7 +1420,7 @@
   <dimension ref="A1:J347"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B178" workbookViewId="0">
-      <selection activeCell="G188" sqref="G188"/>
+      <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5291,10 +5299,40 @@
       <c r="A190" s="3">
         <v>189</v>
       </c>
+      <c r="B190" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C190" s="3">
+        <v>3</v>
+      </c>
+      <c r="D190" s="3">
+        <v>12906</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F190" s="4">
+        <v>44265</v>
+      </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191" s="3">
         <v>190</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C191" s="3">
+        <v>1</v>
+      </c>
+      <c r="D191" s="3">
+        <v>17141</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F191" s="4">
+        <v>44265</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED26E38-1A4C-4E8E-B53A-E201B5C9CC7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E628D6-006A-45A1-A6E8-6ED586ECE52B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="241">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -992,6 +992,18 @@
   </si>
   <si>
     <t>새로운 하노이 탑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 왜 시간초과가 안 나지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1420,7 +1432,7 @@
   <dimension ref="A1:J347"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B178" workbookViewId="0">
-      <selection activeCell="G191" sqref="G191"/>
+      <selection activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5339,83 +5351,116 @@
       <c r="A192" s="3">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B192" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1</v>
+      </c>
+      <c r="D192" s="3">
+        <v>17412</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F192" s="4">
+        <v>44266</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" s="3">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B193" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C193" s="3">
+        <v>2</v>
+      </c>
+      <c r="D193" s="3">
+        <v>11048</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F193" s="4">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" s="3">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" s="3">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" s="3">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" s="3">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199" s="3">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200" s="3">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" s="3">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205" s="3">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206" s="3">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207" s="3">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208" s="3">
         <v>207</v>
       </c>

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E628D6-006A-45A1-A6E8-6ED586ECE52B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067E84C9-4421-4C67-BFD3-0FD535B67692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="243">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1004,6 +1004,14 @@
   </si>
   <si>
     <t>이동하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팰린드롬?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 점프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1431,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B178" workbookViewId="0">
-      <selection activeCell="E193" sqref="E193"/>
+    <sheetView tabSelected="1" topLeftCell="B184" workbookViewId="0">
+      <selection activeCell="G195" sqref="G195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5394,10 +5402,40 @@
       <c r="A194" s="3">
         <v>193</v>
       </c>
+      <c r="B194" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C194" s="3">
+        <v>2</v>
+      </c>
+      <c r="D194" s="3">
+        <v>11060</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F194" s="4">
+        <v>44267</v>
+      </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" s="3">
         <v>194</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C195" s="3">
+        <v>2</v>
+      </c>
+      <c r="D195" s="3">
+        <v>10942</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F195" s="4">
+        <v>44267</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\BOJ_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067E84C9-4421-4C67-BFD3-0FD535B67692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FC9263-0956-47DD-BD7C-048A6BA12406}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="245">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1012,6 +1012,14 @@
   </si>
   <si>
     <t>점프 점프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 합치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2, 3 더하기4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1439,7 +1447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B184" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C187" workbookViewId="0">
       <selection activeCell="G195" sqref="G195"/>
     </sheetView>
   </sheetViews>
@@ -5442,10 +5450,40 @@
       <c r="A196" s="3">
         <v>195</v>
       </c>
+      <c r="B196" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C196" s="3">
+        <v>3</v>
+      </c>
+      <c r="D196" s="3">
+        <v>15989</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F196" s="4">
+        <v>44270</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" s="3">
         <v>196</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C197" s="3">
+        <v>3</v>
+      </c>
+      <c r="D197" s="3">
+        <v>11066</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F197" s="4">
+        <v>44270</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
